--- a/biology/Botanique/Ehretia/Ehretia.xlsx
+++ b/biology/Botanique/Ehretia/Ehretia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ehretia, aussi appelé cabrillet, est un genre de plantes arbustives ou de petits arbres de la famille des Boraginacées (selon la classification phylogénétique). Il est considéré comme l'un des genres les plus primitifs de la famille.
 Le nom de ce genre est dédié à l'illustrateur botanique Georg Dionysius Ehret.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de ce genre sont arbustives, pouvant atteindre une quinzaine de mètres.
 Les inflorescences sont des corymbes ou des cymes paniculées, souvent très odorantes. Le calice est formé de cinq lobes (sépales) complètement séparés (ce n'est pas le cas pour le genre Hilsenbergia et pas général pour le genre Bourreria).
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est présent sur tous les continents sauf l'Europe[1]. La majorité des espèces actuelles se trouvent en Asie, tropicale et subtropicale. Un nombre important est rencontré en Afrique, à Madagascar et dans l'Océan indien, quelques-unes en Amérique, centrale principalement, et en Australie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est présent sur tous les continents sauf l'Europe. La majorité des espèces actuelles se trouvent en Asie, tropicale et subtropicale. Un nombre important est rencontré en Afrique, à Madagascar et dans l'Océan indien, quelques-unes en Amérique, centrale principalement, et en Australie.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces sont utilisées en arbres de parc et d'ornement : Ehretia acuminata, Ehretia dicksonii, Ehretia macrophylla… Certaines peuvent être cultivées en bonzaï dont Ehretia buxifolia (Ehretia buxifolia var. microphylla).
-Un usage alimentaire (fruits, feuilles) est signalé[2],[3].
+Un usage alimentaire (fruits, feuilles) est signalé,.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a des limites restées longtemps incertaines avec les genres voisins : Bourreria P.Browne en particulier (les « échanges » avec ce genre sont nombreux), mais aussi Aegiphila Jacq., Basanacantha Hook.f., Carmona Cav. (quatre de ses cinq espèces sont réparties maintenant en trois autres genres), Cordia L., Crematomia Miers (sur les 15 espèces, dont 9 d'Ehretia, classées dans ce genre par John Miers, 12 ont été reclassées dans le genre Bourreria), Gaza Terán &amp; Berland (à l'unique espèce maintenant incluse dans le genre Ehretia), Grabowskia Schltdl. (famille des Solanacées), Hilsenbergia, Maripa Aubl., Menais Loefl., Morelosia Lex. (fusionné maintenant dans le genre Bourreria), Randia L., Rochefortia Sw., Rotula Lour. (lui-même fusionné avec le genre Rahbdia) et Tournefortia L. Il a, de plus, connu de vastes remaniements, notamment en 1951 et 2002. Le tout entraîne donc une synonymie importante, ainsi que quelques homonymies et quelques incohérences ou indéterminations à lever.
 </t>
@@ -639,7 +659,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste suivante est tirée principalement des index IPNI (The International Plant Names Index) et Tropicos (Index du Missouri botanical garden) à la date de septembre 2009. Les espèces conservées dans le genre sont en caractères gras :
 Ehretia abyssinica R.Br. ex Fresen. - 1838 : voir Ehretia cymosa var. abyssinica
@@ -767,7 +789,7 @@
 Ehretia kaessneri Vanpel - 1912 - Zimbabwe
 Ehretia kantonensis Masam. - 1940 : voir Ehretia acuminata
 Ehretia keyensis Warb. - 1891 - Océanie
-Ehretia laevis Roxb. - 1795 : voir Ehretia cymosa (l'index GRIN considère qu'il s'agit de deux espèces différentes, alors que la BDNF considère qu'il s'agit de la même espèce et Ehretia cymosa comme seule valide [1])
+Ehretia laevis Roxb. - 1795 : voir Ehretia cymosa (l'index GRIN considère qu'il s'agit de deux espèces différentes, alors que la BDNF considère qu'il s'agit de la même espèce et Ehretia cymosa comme seule valide )
 Ehretia laevis var. aspera C.B.Clarke - 1883
 Ehretia laevis var. canarensis Miq. ex C.B.Clarke - 1883
 Ehretia laevis var. cymosa Roem. &amp; Schult. - 1819 : voir Bourreria succulenta var. revoluta (Kunth) O.E.Schulz
